--- a/Code/Results/Cases/Case_1_95/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_95/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9873136025985046</v>
+        <v>1.082916074980141</v>
       </c>
       <c r="D2">
-        <v>1.039782692078346</v>
+        <v>1.071212724985838</v>
       </c>
       <c r="E2">
-        <v>1.006294955813113</v>
+        <v>1.083512288508778</v>
       </c>
       <c r="F2">
-        <v>1.026060101376638</v>
+        <v>1.08916585565232</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056711925909173</v>
+        <v>1.049259449867071</v>
       </c>
       <c r="J2">
-        <v>1.009880497858595</v>
+        <v>1.087783353312988</v>
       </c>
       <c r="K2">
-        <v>1.050714275840722</v>
+        <v>1.073910498376218</v>
       </c>
       <c r="L2">
-        <v>1.017667283044669</v>
+        <v>1.08617771193821</v>
       </c>
       <c r="M2">
-        <v>1.037167934444698</v>
+        <v>1.091816673715599</v>
       </c>
       <c r="N2">
-        <v>1.011314644000467</v>
+        <v>1.089328130445187</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002702968017687</v>
+        <v>1.085554731692022</v>
       </c>
       <c r="D3">
-        <v>1.047882022046342</v>
+        <v>1.07254434795961</v>
       </c>
       <c r="E3">
-        <v>1.019191428901563</v>
+        <v>1.0857416963594</v>
       </c>
       <c r="F3">
-        <v>1.037690611658091</v>
+        <v>1.091161266477799</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060342699988995</v>
+        <v>1.049713981405536</v>
       </c>
       <c r="J3">
-        <v>1.023120217635862</v>
+        <v>1.090076559678816</v>
       </c>
       <c r="K3">
-        <v>1.057936816749685</v>
+        <v>1.075057359250172</v>
       </c>
       <c r="L3">
-        <v>1.029584502200379</v>
+        <v>1.088222555074974</v>
       </c>
       <c r="M3">
-        <v>1.047862919201855</v>
+        <v>1.093629163508242</v>
       </c>
       <c r="N3">
-        <v>1.024573165698434</v>
+        <v>1.091624593427089</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012119152322584</v>
+        <v>1.087254164104436</v>
       </c>
       <c r="D4">
-        <v>1.052853675205002</v>
+        <v>1.073400517263951</v>
       </c>
       <c r="E4">
-        <v>1.027090126602324</v>
+        <v>1.087176939231998</v>
       </c>
       <c r="F4">
-        <v>1.044821366312952</v>
+        <v>1.092445515686433</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062549405279456</v>
+        <v>1.050003939803736</v>
       </c>
       <c r="J4">
-        <v>1.031217848555955</v>
+        <v>1.091552481088305</v>
       </c>
       <c r="K4">
-        <v>1.062353456760405</v>
+        <v>1.075793439405589</v>
       </c>
       <c r="L4">
-        <v>1.036872232427711</v>
+        <v>1.089538018507015</v>
       </c>
       <c r="M4">
-        <v>1.054407335812588</v>
+        <v>1.094794644488092</v>
       </c>
       <c r="N4">
-        <v>1.032682296183245</v>
+        <v>1.09310261081427</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015961855896574</v>
+        <v>1.087966752775386</v>
       </c>
       <c r="D5">
-        <v>1.054885439362901</v>
+        <v>1.073759160123223</v>
       </c>
       <c r="E5">
-        <v>1.030314987929734</v>
+        <v>1.087778602262117</v>
       </c>
       <c r="F5">
-        <v>1.047734108591868</v>
+        <v>1.092983794203763</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063445983970249</v>
+        <v>1.050124853207787</v>
       </c>
       <c r="J5">
-        <v>1.034521433563523</v>
+        <v>1.092171103645076</v>
       </c>
       <c r="K5">
-        <v>1.064154532153309</v>
+        <v>1.076101467698063</v>
       </c>
       <c r="L5">
-        <v>1.039845019353891</v>
+        <v>1.090089239482168</v>
       </c>
       <c r="M5">
-        <v>1.057077605214995</v>
+        <v>1.09528289391573</v>
       </c>
       <c r="N5">
-        <v>1.03599057266045</v>
+        <v>1.093722111886029</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016600626048593</v>
+        <v>1.088086292395382</v>
       </c>
       <c r="D6">
-        <v>1.055223320419407</v>
+        <v>1.073819302758494</v>
       </c>
       <c r="E6">
-        <v>1.030851127741829</v>
+        <v>1.087879524901573</v>
       </c>
       <c r="F6">
-        <v>1.048218431623128</v>
+        <v>1.093074079573157</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063594777171742</v>
+        <v>1.050145097602162</v>
       </c>
       <c r="J6">
-        <v>1.035070519945333</v>
+        <v>1.092274865630796</v>
       </c>
       <c r="K6">
-        <v>1.064453826056788</v>
+        <v>1.07615310433086</v>
       </c>
       <c r="L6">
-        <v>1.040339097949741</v>
+        <v>1.090181687529452</v>
       </c>
       <c r="M6">
-        <v>1.057521438194794</v>
+        <v>1.095364773330405</v>
       </c>
       <c r="N6">
-        <v>1.036540438807903</v>
+        <v>1.09382602122567</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012170937487033</v>
+        <v>1.087263692960082</v>
       </c>
       <c r="D7">
-        <v>1.052881045573152</v>
+        <v>1.073405314510622</v>
       </c>
       <c r="E7">
-        <v>1.02713358039512</v>
+        <v>1.087184985357348</v>
       </c>
       <c r="F7">
-        <v>1.044860609238846</v>
+        <v>1.092452714507599</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062561504065832</v>
+        <v>1.050005559312791</v>
       </c>
       <c r="J7">
-        <v>1.031262372789495</v>
+        <v>1.091560754380985</v>
       </c>
       <c r="K7">
-        <v>1.062377734664174</v>
+        <v>1.075797560846316</v>
       </c>
       <c r="L7">
-        <v>1.036912300001213</v>
+        <v>1.089545390966932</v>
       </c>
       <c r="M7">
-        <v>1.054443323626538</v>
+        <v>1.094801175209114</v>
       </c>
       <c r="N7">
-        <v>1.032726883646303</v>
+        <v>1.093110895855974</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9926358586650232</v>
+        <v>1.083809499867155</v>
       </c>
       <c r="D8">
-        <v>1.042579668000956</v>
+        <v>1.071663900687967</v>
       </c>
       <c r="E8">
-        <v>1.010753088305315</v>
+        <v>1.084267271472018</v>
       </c>
       <c r="F8">
-        <v>1.030078766733229</v>
+        <v>1.089841667507485</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057970500657333</v>
+        <v>1.049413926702445</v>
       </c>
       <c r="J8">
-        <v>1.014459857190907</v>
+        <v>1.088560023864798</v>
       </c>
       <c r="K8">
-        <v>1.053212180150495</v>
+        <v>1.074299343277429</v>
       </c>
       <c r="L8">
-        <v>1.021789345887778</v>
+        <v>1.086870392364584</v>
       </c>
       <c r="M8">
-        <v>1.040866151395624</v>
+        <v>1.092430749599932</v>
       </c>
       <c r="N8">
-        <v>1.01590050654829</v>
+        <v>1.090105903958266</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9532650767936793</v>
+        <v>1.077659494217236</v>
       </c>
       <c r="D9">
-        <v>1.022016762927617</v>
+        <v>1.068552373537535</v>
       </c>
       <c r="E9">
-        <v>0.9778355527138861</v>
+        <v>1.079067792657506</v>
       </c>
       <c r="F9">
-        <v>1.000460318429252</v>
+        <v>1.085186087343976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048614956600045</v>
+        <v>1.048339153687703</v>
       </c>
       <c r="J9">
-        <v>0.9805834194853309</v>
+        <v>1.08320951431182</v>
       </c>
       <c r="K9">
-        <v>1.034762454626091</v>
+        <v>1.071612294086273</v>
       </c>
       <c r="L9">
-        <v>0.9912987688888774</v>
+        <v>1.082095994720611</v>
       </c>
       <c r="M9">
-        <v>1.013545931700271</v>
+        <v>1.088196142281816</v>
       </c>
       <c r="N9">
-        <v>0.9819759604154905</v>
+        <v>1.084747796068011</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.922143515962259</v>
+        <v>1.073513620801457</v>
       </c>
       <c r="D10">
-        <v>1.006019374364916</v>
+        <v>1.066447785812249</v>
       </c>
       <c r="E10">
-        <v>0.9519387459296315</v>
+        <v>1.07555968074041</v>
       </c>
       <c r="F10">
-        <v>0.9772637732493358</v>
+        <v>1.082043373217774</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041195524550884</v>
+        <v>1.047600353985417</v>
       </c>
       <c r="J10">
-        <v>0.9538270642737707</v>
+        <v>1.079597349786759</v>
       </c>
       <c r="K10">
-        <v>1.020280791050682</v>
+        <v>1.069788012553208</v>
       </c>
       <c r="L10">
-        <v>0.9672335891413684</v>
+        <v>1.078869646635455</v>
       </c>
       <c r="M10">
-        <v>0.9920560406830484</v>
+        <v>1.085332146742193</v>
       </c>
       <c r="N10">
-        <v>0.9551816081105329</v>
+        <v>1.081130501855004</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9069560963673359</v>
+        <v>1.071706780382016</v>
       </c>
       <c r="D11">
-        <v>0.9983138664342811</v>
+        <v>1.065528993265787</v>
       </c>
       <c r="E11">
-        <v>0.9393506282483444</v>
+        <v>1.074030098949303</v>
       </c>
       <c r="F11">
-        <v>0.9660282786930648</v>
+        <v>1.08067277464093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037585371794604</v>
+        <v>1.047275021668271</v>
       </c>
       <c r="J11">
-        <v>0.940786349405111</v>
+        <v>1.078021874149623</v>
       </c>
       <c r="K11">
-        <v>1.013267650971482</v>
+        <v>1.068989972439615</v>
       </c>
       <c r="L11">
-        <v>0.9555147083155691</v>
+        <v>1.077461716768334</v>
       </c>
       <c r="M11">
-        <v>0.9816206054814735</v>
+        <v>1.084081803171332</v>
       </c>
       <c r="N11">
-        <v>0.9421223739309686</v>
+        <v>1.079552788861753</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9009831981798913</v>
+        <v>1.071033823676628</v>
       </c>
       <c r="D12">
-        <v>0.9953035689291978</v>
+        <v>1.065186559949532</v>
       </c>
       <c r="E12">
-        <v>0.9344100047181613</v>
+        <v>1.073460305892511</v>
       </c>
       <c r="F12">
-        <v>0.9616264148247953</v>
+        <v>1.080162158230134</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036169194354626</v>
+        <v>1.04715335123192</v>
       </c>
       <c r="J12">
-        <v>0.935661639386843</v>
+        <v>1.077434904659013</v>
       </c>
       <c r="K12">
-        <v>1.010521301669539</v>
+        <v>1.068692299565211</v>
       </c>
       <c r="L12">
-        <v>0.9509117736822458</v>
+        <v>1.07693706012955</v>
       </c>
       <c r="M12">
-        <v>0.9775276647920838</v>
+        <v>1.083615792047071</v>
       </c>
       <c r="N12">
-        <v>0.9369903862366622</v>
+        <v>1.07896498580714</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9022809903899911</v>
+        <v>1.071178258407232</v>
       </c>
       <c r="D13">
-        <v>0.9959566469992416</v>
+        <v>1.065260065672097</v>
       </c>
       <c r="E13">
-        <v>0.9354830023845232</v>
+        <v>1.073582603450609</v>
       </c>
       <c r="F13">
-        <v>0.9625820148908076</v>
+        <v>1.080271756483508</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036476698538161</v>
+        <v>1.047179487599514</v>
       </c>
       <c r="J13">
-        <v>0.9367749308527606</v>
+        <v>1.077560892533283</v>
       </c>
       <c r="K13">
-        <v>1.011117427594279</v>
+        <v>1.068756208184535</v>
       </c>
       <c r="L13">
-        <v>0.9519115942878466</v>
+        <v>1.077049678016479</v>
       </c>
       <c r="M13">
-        <v>0.9784164145419674</v>
+        <v>1.083715825121287</v>
       </c>
       <c r="N13">
-        <v>0.9381052587041581</v>
+        <v>1.079091152598642</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9064696940971264</v>
+        <v>1.071651190994977</v>
       </c>
       <c r="D14">
-        <v>0.9980682865728361</v>
+        <v>1.065500711298847</v>
       </c>
       <c r="E14">
-        <v>0.938948070379242</v>
+        <v>1.073983033413487</v>
       </c>
       <c r="F14">
-        <v>0.9656694478046044</v>
+        <v>1.080630598102167</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037469958890424</v>
+        <v>1.047264981304781</v>
       </c>
       <c r="J14">
-        <v>0.940368930119039</v>
+        <v>1.077973391464789</v>
       </c>
       <c r="K14">
-        <v>1.013043741176747</v>
+        <v>1.068965392263242</v>
       </c>
       <c r="L14">
-        <v>0.9551397366616303</v>
+        <v>1.077418383238263</v>
       </c>
       <c r="M14">
-        <v>0.9812870517791554</v>
+        <v>1.08404331498767</v>
       </c>
       <c r="N14">
-        <v>0.9417043618616319</v>
+        <v>1.079504237325945</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9090037457904314</v>
+        <v>1.071942337787875</v>
       </c>
       <c r="D15">
-        <v>0.9993485423796655</v>
+        <v>1.065648827421854</v>
       </c>
       <c r="E15">
-        <v>0.9410457289174583</v>
+        <v>1.074229532812346</v>
       </c>
       <c r="F15">
-        <v>0.9675395804623746</v>
+        <v>1.080851490131546</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038071393937216</v>
+        <v>1.047317546774142</v>
       </c>
       <c r="J15">
-        <v>0.9425437625023941</v>
+        <v>1.078227309699833</v>
       </c>
       <c r="K15">
-        <v>1.014210758708169</v>
+        <v>1.069094111677872</v>
       </c>
       <c r="L15">
-        <v>0.9570935073352137</v>
+        <v>1.077645329361315</v>
       </c>
       <c r="M15">
-        <v>0.9830252615490955</v>
+        <v>1.084244881913363</v>
       </c>
       <c r="N15">
-        <v>0.9438822827564279</v>
+        <v>1.079758516154008</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9231097515419745</v>
+        <v>1.073633283844276</v>
       </c>
       <c r="D16">
-        <v>1.006511991001459</v>
+        <v>1.066508602885047</v>
       </c>
       <c r="E16">
-        <v>0.9527407911476683</v>
+        <v>1.075660967281767</v>
       </c>
       <c r="F16">
-        <v>0.9779805762462979</v>
+        <v>1.082134125374707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041425566310429</v>
+        <v>1.047621829844446</v>
       </c>
       <c r="J16">
-        <v>0.954657160290854</v>
+        <v>1.079701664194411</v>
       </c>
       <c r="K16">
-        <v>1.020728321244717</v>
+        <v>1.069840802669922</v>
       </c>
       <c r="L16">
-        <v>0.9679798066084258</v>
+        <v>1.078962852309555</v>
       </c>
       <c r="M16">
-        <v>0.9927212291312147</v>
+        <v>1.085414909049393</v>
       </c>
       <c r="N16">
-        <v>0.9560128829591736</v>
+        <v>1.081234964401079</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9314565346802117</v>
+        <v>1.074690804853973</v>
       </c>
       <c r="D17">
-        <v>1.010778768778605</v>
+        <v>1.067045892413368</v>
       </c>
       <c r="E17">
-        <v>0.9596747772466389</v>
+        <v>1.076556007150682</v>
       </c>
       <c r="F17">
-        <v>0.9841820957595487</v>
+        <v>1.082936037786383</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04341407372653</v>
+        <v>1.047811237074969</v>
       </c>
       <c r="J17">
-        <v>0.9618297965726167</v>
+        <v>1.080623399786254</v>
       </c>
       <c r="K17">
-        <v>1.024600410231266</v>
+        <v>1.07030699151216</v>
       </c>
       <c r="L17">
-        <v>0.974428832498849</v>
+        <v>1.079786345630038</v>
       </c>
       <c r="M17">
-        <v>0.998473273386843</v>
+        <v>1.086146071203217</v>
       </c>
       <c r="N17">
-        <v>0.9631957052071692</v>
+        <v>1.082158008963187</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9361662034765803</v>
+        <v>1.075306519411961</v>
       </c>
       <c r="D18">
-        <v>1.013195004366049</v>
+        <v>1.067358563289652</v>
       </c>
       <c r="E18">
-        <v>0.963591526318147</v>
+        <v>1.077077054900718</v>
       </c>
       <c r="F18">
-        <v>0.9876885608001754</v>
+        <v>1.083402838958235</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044536883607002</v>
+        <v>1.047921192300319</v>
       </c>
       <c r="J18">
-        <v>0.965878319168778</v>
+        <v>1.081159938045723</v>
       </c>
       <c r="K18">
-        <v>1.026789796593361</v>
+        <v>1.070578130474674</v>
       </c>
       <c r="L18">
-        <v>0.9780697742999391</v>
+        <v>1.080265627185463</v>
       </c>
       <c r="M18">
-        <v>1.001723244418071</v>
+        <v>1.086571563121416</v>
       </c>
       <c r="N18">
-        <v>0.9672499771697893</v>
+        <v>1.082695309168526</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9377469081603848</v>
+        <v>1.075516274232273</v>
       </c>
       <c r="D19">
-        <v>1.01400732929731</v>
+        <v>1.067465054497893</v>
       </c>
       <c r="E19">
-        <v>0.9649067668063769</v>
+        <v>1.077254548364346</v>
       </c>
       <c r="F19">
-        <v>0.9888665723764725</v>
+        <v>1.083561847883336</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044913820027531</v>
+        <v>1.047958595877514</v>
       </c>
       <c r="J19">
-        <v>0.9672373225362274</v>
+        <v>1.081342699796094</v>
       </c>
       <c r="K19">
-        <v>1.027525309425649</v>
+        <v>1.070670450150104</v>
       </c>
       <c r="L19">
-        <v>0.9792920884060534</v>
+        <v>1.080428873559197</v>
       </c>
       <c r="M19">
-        <v>1.002814698927718</v>
+        <v>1.086716479500502</v>
       </c>
       <c r="N19">
-        <v>0.9686109104779005</v>
+        <v>1.082878330461546</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9305778748065668</v>
+        <v>1.074577459127966</v>
       </c>
       <c r="D20">
-        <v>1.010328667960802</v>
+        <v>1.066988321105085</v>
       </c>
       <c r="E20">
-        <v>0.9589443818545393</v>
+        <v>1.07646008309778</v>
       </c>
       <c r="F20">
-        <v>0.9835284823671947</v>
+        <v>1.082850097807199</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043204649996189</v>
+        <v>1.047790969635226</v>
       </c>
       <c r="J20">
-        <v>0.9610745870792599</v>
+        <v>1.080524619902117</v>
       </c>
       <c r="K20">
-        <v>1.024192299428675</v>
+        <v>1.070257054842013</v>
       </c>
       <c r="L20">
-        <v>0.9737497183243147</v>
+        <v>1.07969810137409</v>
       </c>
       <c r="M20">
-        <v>0.9978672818824208</v>
+        <v>1.086067726368066</v>
       </c>
       <c r="N20">
-        <v>0.9624394232297083</v>
+        <v>1.082059088800284</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9052461505672402</v>
+        <v>1.071511974790793</v>
       </c>
       <c r="D21">
-        <v>0.9974508709463401</v>
+        <v>1.065429879205918</v>
       </c>
       <c r="E21">
-        <v>0.9379356071789479</v>
+        <v>1.073865162432136</v>
       </c>
       <c r="F21">
-        <v>0.9647670941434914</v>
+        <v>1.080524970381733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037179703869951</v>
+        <v>1.047239828482309</v>
       </c>
       <c r="J21">
-        <v>0.939318981670937</v>
+        <v>1.077851970073665</v>
       </c>
       <c r="K21">
-        <v>1.012480698829427</v>
+        <v>1.068903827353802</v>
       </c>
       <c r="L21">
-        <v>0.954196598374494</v>
+        <v>1.077309855775896</v>
       </c>
       <c r="M21">
-        <v>0.9804481885319145</v>
+        <v>1.083946921292564</v>
       </c>
       <c r="N21">
-        <v>0.9406529223663029</v>
+        <v>1.079382643502519</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8873332833449469</v>
+        <v>1.069574044467936</v>
       </c>
       <c r="D22">
-        <v>0.9884693592094592</v>
+        <v>1.064443340926646</v>
       </c>
       <c r="E22">
-        <v>0.9231420025561103</v>
+        <v>1.07222412677687</v>
       </c>
       <c r="F22">
-        <v>0.9516047731746708</v>
+        <v>1.079054281570091</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03294268524842</v>
+        <v>1.04688851011299</v>
       </c>
       <c r="J22">
-        <v>0.9239597801391179</v>
+        <v>1.076161312476827</v>
       </c>
       <c r="K22">
-        <v>1.004272754138494</v>
+        <v>1.068045781530429</v>
       </c>
       <c r="L22">
-        <v>0.9404069518141208</v>
+        <v>1.075798473958834</v>
       </c>
       <c r="M22">
-        <v>0.968200030550835</v>
+        <v>1.082604335923974</v>
       </c>
       <c r="N22">
-        <v>0.9252719090065834</v>
+        <v>1.077689584977973</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8970526912505966</v>
+        <v>1.070602399163525</v>
       </c>
       <c r="D23">
-        <v>0.9933290929691331</v>
+        <v>1.064966966357102</v>
       </c>
       <c r="E23">
-        <v>0.9311620474964292</v>
+        <v>1.073094990161873</v>
       </c>
       <c r="F23">
-        <v>0.9587351621178544</v>
+        <v>1.079834770019478</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035238619542232</v>
+        <v>1.047075209182236</v>
       </c>
       <c r="J23">
-        <v>0.9322906413818475</v>
+        <v>1.07705855370947</v>
       </c>
       <c r="K23">
-        <v>1.008717964605021</v>
+        <v>1.06850134093537</v>
       </c>
       <c r="L23">
-        <v>0.9478847831892392</v>
+        <v>1.076600632086703</v>
       </c>
       <c r="M23">
-        <v>0.9748379555465251</v>
+        <v>1.08331694792051</v>
       </c>
       <c r="N23">
-        <v>0.933614601027841</v>
+        <v>1.07858810039608</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9309753891600124</v>
+        <v>1.074628678638875</v>
       </c>
       <c r="D24">
-        <v>1.01053227103244</v>
+        <v>1.067014337327994</v>
       </c>
       <c r="E24">
-        <v>0.9592748067530023</v>
+        <v>1.07650343017856</v>
       </c>
       <c r="F24">
-        <v>0.9838241610086336</v>
+        <v>1.082888933289469</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043299392990449</v>
+        <v>1.047800129233805</v>
       </c>
       <c r="J24">
-        <v>0.9614162470854448</v>
+        <v>1.08056925765912</v>
       </c>
       <c r="K24">
-        <v>1.024376918712908</v>
+        <v>1.07027962148624</v>
       </c>
       <c r="L24">
-        <v>0.9740569498599928</v>
+        <v>1.079737978391303</v>
       </c>
       <c r="M24">
-        <v>0.9981414248776089</v>
+        <v>1.086103130060988</v>
       </c>
       <c r="N24">
-        <v>0.962781568432291</v>
+        <v>1.082103789948022</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9641612202630749</v>
+        <v>1.079257255010217</v>
       </c>
       <c r="D25">
-        <v>1.02767564633059</v>
+        <v>1.06936200494748</v>
       </c>
       <c r="E25">
-        <v>0.9869303882240492</v>
+        <v>1.080419145084964</v>
       </c>
       <c r="F25">
-        <v>1.008630241011635</v>
+        <v>1.086396368141518</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051211946522159</v>
+        <v>1.048620890646107</v>
       </c>
       <c r="J25">
-        <v>0.9899579711227848</v>
+        <v>1.084600491905127</v>
       </c>
       <c r="K25">
-        <v>1.039859004664021</v>
+        <v>1.072312663994931</v>
       </c>
       <c r="L25">
-        <v>0.9997350389246933</v>
+        <v>1.083337749620451</v>
       </c>
       <c r="M25">
-        <v>1.021096044739596</v>
+        <v>1.089297939791447</v>
       </c>
       <c r="N25">
-        <v>0.9913638249915457</v>
+        <v>1.086140749009048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_95/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_95/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.082916074980141</v>
+        <v>0.9873136025985032</v>
       </c>
       <c r="D2">
-        <v>1.071212724985838</v>
+        <v>1.039782692078346</v>
       </c>
       <c r="E2">
-        <v>1.083512288508778</v>
+        <v>1.006294955813112</v>
       </c>
       <c r="F2">
-        <v>1.08916585565232</v>
+        <v>1.026060101376637</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049259449867071</v>
+        <v>1.056711925909173</v>
       </c>
       <c r="J2">
-        <v>1.087783353312988</v>
+        <v>1.009880497858594</v>
       </c>
       <c r="K2">
-        <v>1.073910498376218</v>
+        <v>1.050714275840722</v>
       </c>
       <c r="L2">
-        <v>1.08617771193821</v>
+        <v>1.017667283044667</v>
       </c>
       <c r="M2">
-        <v>1.091816673715599</v>
+        <v>1.037167934444697</v>
       </c>
       <c r="N2">
-        <v>1.089328130445187</v>
+        <v>1.011314644000465</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.085554731692022</v>
+        <v>1.002702968017686</v>
       </c>
       <c r="D3">
-        <v>1.07254434795961</v>
+        <v>1.047882022046341</v>
       </c>
       <c r="E3">
-        <v>1.0857416963594</v>
+        <v>1.019191428901562</v>
       </c>
       <c r="F3">
-        <v>1.091161266477799</v>
+        <v>1.03769061165809</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049713981405536</v>
+        <v>1.060342699988995</v>
       </c>
       <c r="J3">
-        <v>1.090076559678816</v>
+        <v>1.023120217635862</v>
       </c>
       <c r="K3">
-        <v>1.075057359250172</v>
+        <v>1.057936816749685</v>
       </c>
       <c r="L3">
-        <v>1.088222555074974</v>
+        <v>1.029584502200379</v>
       </c>
       <c r="M3">
-        <v>1.093629163508242</v>
+        <v>1.047862919201854</v>
       </c>
       <c r="N3">
-        <v>1.091624593427089</v>
+        <v>1.024573165698434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.087254164104436</v>
+        <v>1.012119152322581</v>
       </c>
       <c r="D4">
-        <v>1.073400517263951</v>
+        <v>1.052853675205001</v>
       </c>
       <c r="E4">
-        <v>1.087176939231998</v>
+        <v>1.027090126602322</v>
       </c>
       <c r="F4">
-        <v>1.092445515686433</v>
+        <v>1.04482136631295</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050003939803736</v>
+        <v>1.062549405279454</v>
       </c>
       <c r="J4">
-        <v>1.091552481088305</v>
+        <v>1.031217848555953</v>
       </c>
       <c r="K4">
-        <v>1.075793439405589</v>
+        <v>1.062353456760404</v>
       </c>
       <c r="L4">
-        <v>1.089538018507015</v>
+        <v>1.036872232427709</v>
       </c>
       <c r="M4">
-        <v>1.094794644488092</v>
+        <v>1.054407335812586</v>
       </c>
       <c r="N4">
-        <v>1.09310261081427</v>
+        <v>1.032682296183243</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.087966752775386</v>
+        <v>1.015961855896574</v>
       </c>
       <c r="D5">
-        <v>1.073759160123223</v>
+        <v>1.054885439362901</v>
       </c>
       <c r="E5">
-        <v>1.087778602262117</v>
+        <v>1.030314987929733</v>
       </c>
       <c r="F5">
-        <v>1.092983794203763</v>
+        <v>1.047734108591869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050124853207787</v>
+        <v>1.063445983970249</v>
       </c>
       <c r="J5">
-        <v>1.092171103645076</v>
+        <v>1.034521433563524</v>
       </c>
       <c r="K5">
-        <v>1.076101467698063</v>
+        <v>1.064154532153309</v>
       </c>
       <c r="L5">
-        <v>1.090089239482168</v>
+        <v>1.039845019353891</v>
       </c>
       <c r="M5">
-        <v>1.09528289391573</v>
+        <v>1.057077605214995</v>
       </c>
       <c r="N5">
-        <v>1.093722111886029</v>
+        <v>1.035990572660451</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.088086292395382</v>
+        <v>1.016600626048592</v>
       </c>
       <c r="D6">
-        <v>1.073819302758494</v>
+        <v>1.055223320419407</v>
       </c>
       <c r="E6">
-        <v>1.087879524901573</v>
+        <v>1.030851127741828</v>
       </c>
       <c r="F6">
-        <v>1.093074079573157</v>
+        <v>1.048218431623127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050145097602162</v>
+        <v>1.063594777171741</v>
       </c>
       <c r="J6">
-        <v>1.092274865630796</v>
+        <v>1.035070519945331</v>
       </c>
       <c r="K6">
-        <v>1.07615310433086</v>
+        <v>1.064453826056788</v>
       </c>
       <c r="L6">
-        <v>1.090181687529452</v>
+        <v>1.040339097949741</v>
       </c>
       <c r="M6">
-        <v>1.095364773330405</v>
+        <v>1.057521438194793</v>
       </c>
       <c r="N6">
-        <v>1.09382602122567</v>
+        <v>1.036540438807902</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.087263692960082</v>
+        <v>1.012170937487034</v>
       </c>
       <c r="D7">
-        <v>1.073405314510622</v>
+        <v>1.052881045573152</v>
       </c>
       <c r="E7">
-        <v>1.087184985357348</v>
+        <v>1.027133580395121</v>
       </c>
       <c r="F7">
-        <v>1.092452714507599</v>
+        <v>1.044860609238847</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050005559312791</v>
+        <v>1.062561504065832</v>
       </c>
       <c r="J7">
-        <v>1.091560754380985</v>
+        <v>1.031262372789495</v>
       </c>
       <c r="K7">
-        <v>1.075797560846316</v>
+        <v>1.062377734664174</v>
       </c>
       <c r="L7">
-        <v>1.089545390966932</v>
+        <v>1.036912300001213</v>
       </c>
       <c r="M7">
-        <v>1.094801175209114</v>
+        <v>1.054443323626538</v>
       </c>
       <c r="N7">
-        <v>1.093110895855974</v>
+        <v>1.032726883646304</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.083809499867155</v>
+        <v>0.9926358586650242</v>
       </c>
       <c r="D8">
-        <v>1.071663900687967</v>
+        <v>1.042579668000956</v>
       </c>
       <c r="E8">
-        <v>1.084267271472018</v>
+        <v>1.010753088305316</v>
       </c>
       <c r="F8">
-        <v>1.089841667507485</v>
+        <v>1.03007876673323</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049413926702445</v>
+        <v>1.057970500657333</v>
       </c>
       <c r="J8">
-        <v>1.088560023864798</v>
+        <v>1.014459857190908</v>
       </c>
       <c r="K8">
-        <v>1.074299343277429</v>
+        <v>1.053212180150495</v>
       </c>
       <c r="L8">
-        <v>1.086870392364584</v>
+        <v>1.021789345887779</v>
       </c>
       <c r="M8">
-        <v>1.092430749599932</v>
+        <v>1.040866151395625</v>
       </c>
       <c r="N8">
-        <v>1.090105903958266</v>
+        <v>1.015900506548292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.077659494217236</v>
+        <v>0.9532650767936809</v>
       </c>
       <c r="D9">
-        <v>1.068552373537535</v>
+        <v>1.022016762927617</v>
       </c>
       <c r="E9">
-        <v>1.079067792657506</v>
+        <v>0.9778355527138878</v>
       </c>
       <c r="F9">
-        <v>1.085186087343976</v>
+        <v>1.000460318429254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048339153687703</v>
+        <v>1.048614956600045</v>
       </c>
       <c r="J9">
-        <v>1.08320951431182</v>
+        <v>0.9805834194853325</v>
       </c>
       <c r="K9">
-        <v>1.071612294086273</v>
+        <v>1.034762454626092</v>
       </c>
       <c r="L9">
-        <v>1.082095994720611</v>
+        <v>0.9912987688888788</v>
       </c>
       <c r="M9">
-        <v>1.088196142281816</v>
+        <v>1.013545931700272</v>
       </c>
       <c r="N9">
-        <v>1.084747796068011</v>
+        <v>0.9819759604154922</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.073513620801457</v>
+        <v>0.9221435159622611</v>
       </c>
       <c r="D10">
-        <v>1.066447785812249</v>
+        <v>1.006019374364918</v>
       </c>
       <c r="E10">
-        <v>1.07555968074041</v>
+        <v>0.9519387459296333</v>
       </c>
       <c r="F10">
-        <v>1.082043373217774</v>
+        <v>0.9772637732493373</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047600353985417</v>
+        <v>1.041195524550884</v>
       </c>
       <c r="J10">
-        <v>1.079597349786759</v>
+        <v>0.953827064273773</v>
       </c>
       <c r="K10">
-        <v>1.069788012553208</v>
+        <v>1.020280791050683</v>
       </c>
       <c r="L10">
-        <v>1.078869646635455</v>
+        <v>0.9672335891413703</v>
       </c>
       <c r="M10">
-        <v>1.085332146742193</v>
+        <v>0.99205604068305</v>
       </c>
       <c r="N10">
-        <v>1.081130501855004</v>
+        <v>0.9551816081105349</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.071706780382016</v>
+        <v>0.9069560963673399</v>
       </c>
       <c r="D11">
-        <v>1.065528993265787</v>
+        <v>0.9983138664342832</v>
       </c>
       <c r="E11">
-        <v>1.074030098949303</v>
+        <v>0.9393506282483481</v>
       </c>
       <c r="F11">
-        <v>1.08067277464093</v>
+        <v>0.966028278693068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047275021668271</v>
+        <v>1.037585371794606</v>
       </c>
       <c r="J11">
-        <v>1.078021874149623</v>
+        <v>0.940786349405115</v>
       </c>
       <c r="K11">
-        <v>1.068989972439615</v>
+        <v>1.013267650971484</v>
       </c>
       <c r="L11">
-        <v>1.077461716768334</v>
+        <v>0.9555147083155725</v>
       </c>
       <c r="M11">
-        <v>1.084081803171332</v>
+        <v>0.9816206054814768</v>
       </c>
       <c r="N11">
-        <v>1.079552788861753</v>
+        <v>0.9421223739309726</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.071033823676628</v>
+        <v>0.9009831981798895</v>
       </c>
       <c r="D12">
-        <v>1.065186559949532</v>
+        <v>0.9953035689291969</v>
       </c>
       <c r="E12">
-        <v>1.073460305892511</v>
+        <v>0.9344100047181596</v>
       </c>
       <c r="F12">
-        <v>1.080162158230134</v>
+        <v>0.9616264148247939</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04715335123192</v>
+        <v>1.036169194354626</v>
       </c>
       <c r="J12">
-        <v>1.077434904659013</v>
+        <v>0.9356616393868414</v>
       </c>
       <c r="K12">
-        <v>1.068692299565211</v>
+        <v>1.010521301669538</v>
       </c>
       <c r="L12">
-        <v>1.07693706012955</v>
+        <v>0.9509117736822442</v>
       </c>
       <c r="M12">
-        <v>1.083615792047071</v>
+        <v>0.9775276647920826</v>
       </c>
       <c r="N12">
-        <v>1.07896498580714</v>
+        <v>0.9369903862366608</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.071178258407232</v>
+        <v>0.9022809903899938</v>
       </c>
       <c r="D13">
-        <v>1.065260065672097</v>
+        <v>0.9959566469992432</v>
       </c>
       <c r="E13">
-        <v>1.073582603450609</v>
+        <v>0.9354830023845252</v>
       </c>
       <c r="F13">
-        <v>1.080271756483508</v>
+        <v>0.96258201489081</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047179487599514</v>
+        <v>1.036476698538162</v>
       </c>
       <c r="J13">
-        <v>1.077560892533283</v>
+        <v>0.9367749308527631</v>
       </c>
       <c r="K13">
-        <v>1.068756208184535</v>
+        <v>1.011117427594281</v>
       </c>
       <c r="L13">
-        <v>1.077049678016479</v>
+        <v>0.9519115942878484</v>
       </c>
       <c r="M13">
-        <v>1.083715825121287</v>
+        <v>0.9784164145419697</v>
       </c>
       <c r="N13">
-        <v>1.079091152598642</v>
+        <v>0.9381052587041603</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.071651190994977</v>
+        <v>0.9064696940971241</v>
       </c>
       <c r="D14">
-        <v>1.065500711298847</v>
+        <v>0.9980682865728342</v>
       </c>
       <c r="E14">
-        <v>1.073983033413487</v>
+        <v>0.9389480703792396</v>
       </c>
       <c r="F14">
-        <v>1.080630598102167</v>
+        <v>0.9656694478046021</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047264981304781</v>
+        <v>1.037469958890423</v>
       </c>
       <c r="J14">
-        <v>1.077973391464789</v>
+        <v>0.9403689301190368</v>
       </c>
       <c r="K14">
-        <v>1.068965392263242</v>
+        <v>1.013043741176746</v>
       </c>
       <c r="L14">
-        <v>1.077418383238263</v>
+        <v>0.9551397366616281</v>
       </c>
       <c r="M14">
-        <v>1.08404331498767</v>
+        <v>0.9812870517791533</v>
       </c>
       <c r="N14">
-        <v>1.079504237325945</v>
+        <v>0.9417043618616298</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.071942337787875</v>
+        <v>0.909003745790431</v>
       </c>
       <c r="D15">
-        <v>1.065648827421854</v>
+        <v>0.9993485423796655</v>
       </c>
       <c r="E15">
-        <v>1.074229532812346</v>
+        <v>0.9410457289174579</v>
       </c>
       <c r="F15">
-        <v>1.080851490131546</v>
+        <v>0.9675395804623749</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047317546774142</v>
+        <v>1.038071393937216</v>
       </c>
       <c r="J15">
-        <v>1.078227309699833</v>
+        <v>0.9425437625023936</v>
       </c>
       <c r="K15">
-        <v>1.069094111677872</v>
+        <v>1.014210758708168</v>
       </c>
       <c r="L15">
-        <v>1.077645329361315</v>
+        <v>0.9570935073352133</v>
       </c>
       <c r="M15">
-        <v>1.084244881913363</v>
+        <v>0.9830252615490955</v>
       </c>
       <c r="N15">
-        <v>1.079758516154008</v>
+        <v>0.9438822827564277</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.073633283844276</v>
+        <v>0.9231097515419759</v>
       </c>
       <c r="D16">
-        <v>1.066508602885047</v>
+        <v>1.00651199100146</v>
       </c>
       <c r="E16">
-        <v>1.075660967281767</v>
+        <v>0.9527407911476694</v>
       </c>
       <c r="F16">
-        <v>1.082134125374707</v>
+        <v>0.977980576246299</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047621829844446</v>
+        <v>1.041425566310429</v>
       </c>
       <c r="J16">
-        <v>1.079701664194411</v>
+        <v>0.9546571602908553</v>
       </c>
       <c r="K16">
-        <v>1.069840802669922</v>
+        <v>1.020728321244718</v>
       </c>
       <c r="L16">
-        <v>1.078962852309555</v>
+        <v>0.9679798066084268</v>
       </c>
       <c r="M16">
-        <v>1.085414909049393</v>
+        <v>0.9927212291312156</v>
       </c>
       <c r="N16">
-        <v>1.081234964401079</v>
+        <v>0.9560128829591753</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.074690804853973</v>
+        <v>0.9314565346802125</v>
       </c>
       <c r="D17">
-        <v>1.067045892413368</v>
+        <v>1.010778768778605</v>
       </c>
       <c r="E17">
-        <v>1.076556007150682</v>
+        <v>0.9596747772466397</v>
       </c>
       <c r="F17">
-        <v>1.082936037786383</v>
+        <v>0.9841820957595491</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047811237074969</v>
+        <v>1.043414073726531</v>
       </c>
       <c r="J17">
-        <v>1.080623399786254</v>
+        <v>0.9618297965726175</v>
       </c>
       <c r="K17">
-        <v>1.07030699151216</v>
+        <v>1.024600410231266</v>
       </c>
       <c r="L17">
-        <v>1.079786345630038</v>
+        <v>0.9744288324988498</v>
       </c>
       <c r="M17">
-        <v>1.086146071203217</v>
+        <v>0.9984732733868433</v>
       </c>
       <c r="N17">
-        <v>1.082158008963187</v>
+        <v>0.9631957052071701</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.075306519411961</v>
+        <v>0.9361662034765786</v>
       </c>
       <c r="D18">
-        <v>1.067358563289652</v>
+        <v>1.013195004366049</v>
       </c>
       <c r="E18">
-        <v>1.077077054900718</v>
+        <v>0.9635915263181458</v>
       </c>
       <c r="F18">
-        <v>1.083402838958235</v>
+        <v>0.9876885608001748</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047921192300319</v>
+        <v>1.044536883607002</v>
       </c>
       <c r="J18">
-        <v>1.081159938045723</v>
+        <v>0.9658783191687768</v>
       </c>
       <c r="K18">
-        <v>1.070578130474674</v>
+        <v>1.026789796593361</v>
       </c>
       <c r="L18">
-        <v>1.080265627185463</v>
+        <v>0.9780697742999379</v>
       </c>
       <c r="M18">
-        <v>1.086571563121416</v>
+        <v>1.00172324441807</v>
       </c>
       <c r="N18">
-        <v>1.082695309168526</v>
+        <v>0.9672499771697882</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.075516274232273</v>
+        <v>0.937746908160383</v>
       </c>
       <c r="D19">
-        <v>1.067465054497893</v>
+        <v>1.014007329297308</v>
       </c>
       <c r="E19">
-        <v>1.077254548364346</v>
+        <v>0.964906766806375</v>
       </c>
       <c r="F19">
-        <v>1.083561847883336</v>
+        <v>0.988866572376471</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047958595877514</v>
+        <v>1.044913820027531</v>
       </c>
       <c r="J19">
-        <v>1.081342699796094</v>
+        <v>0.9672373225362259</v>
       </c>
       <c r="K19">
-        <v>1.070670450150104</v>
+        <v>1.027525309425648</v>
       </c>
       <c r="L19">
-        <v>1.080428873559197</v>
+        <v>0.9792920884060516</v>
       </c>
       <c r="M19">
-        <v>1.086716479500502</v>
+        <v>1.002814698927717</v>
       </c>
       <c r="N19">
-        <v>1.082878330461546</v>
+        <v>0.9686109104778987</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.074577459127966</v>
+        <v>0.9305778748065696</v>
       </c>
       <c r="D20">
-        <v>1.066988321105085</v>
+        <v>1.010328667960804</v>
       </c>
       <c r="E20">
-        <v>1.07646008309778</v>
+        <v>0.9589443818545421</v>
       </c>
       <c r="F20">
-        <v>1.082850097807199</v>
+        <v>0.9835284823671971</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047790969635226</v>
+        <v>1.04320464999619</v>
       </c>
       <c r="J20">
-        <v>1.080524619902117</v>
+        <v>0.9610745870792626</v>
       </c>
       <c r="K20">
-        <v>1.070257054842013</v>
+        <v>1.024192299428677</v>
       </c>
       <c r="L20">
-        <v>1.07969810137409</v>
+        <v>0.9737497183243173</v>
       </c>
       <c r="M20">
-        <v>1.086067726368066</v>
+        <v>0.9978672818824235</v>
       </c>
       <c r="N20">
-        <v>1.082059088800284</v>
+        <v>0.9624394232297111</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.071511974790793</v>
+        <v>0.9052461505672392</v>
       </c>
       <c r="D21">
-        <v>1.065429879205918</v>
+        <v>0.99745087094634</v>
       </c>
       <c r="E21">
-        <v>1.073865162432136</v>
+        <v>0.9379356071789471</v>
       </c>
       <c r="F21">
-        <v>1.080524970381733</v>
+        <v>0.964767094143491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047239828482309</v>
+        <v>1.037179703869951</v>
       </c>
       <c r="J21">
-        <v>1.077851970073665</v>
+        <v>0.9393189816709361</v>
       </c>
       <c r="K21">
-        <v>1.068903827353802</v>
+        <v>1.012480698829427</v>
       </c>
       <c r="L21">
-        <v>1.077309855775896</v>
+        <v>0.9541965983744931</v>
       </c>
       <c r="M21">
-        <v>1.083946921292564</v>
+        <v>0.9804481885319141</v>
       </c>
       <c r="N21">
-        <v>1.079382643502519</v>
+        <v>0.9406529223663018</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.069574044467936</v>
+        <v>0.8873332833449459</v>
       </c>
       <c r="D22">
-        <v>1.064443340926646</v>
+        <v>0.9884693592094586</v>
       </c>
       <c r="E22">
-        <v>1.07222412677687</v>
+        <v>0.9231420025561095</v>
       </c>
       <c r="F22">
-        <v>1.079054281570091</v>
+        <v>0.9516047731746702</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04688851011299</v>
+        <v>1.032942685248419</v>
       </c>
       <c r="J22">
-        <v>1.076161312476827</v>
+        <v>0.9239597801391171</v>
       </c>
       <c r="K22">
-        <v>1.068045781530429</v>
+        <v>1.004272754138494</v>
       </c>
       <c r="L22">
-        <v>1.075798473958834</v>
+        <v>0.9404069518141202</v>
       </c>
       <c r="M22">
-        <v>1.082604335923974</v>
+        <v>0.9682000305508345</v>
       </c>
       <c r="N22">
-        <v>1.077689584977973</v>
+        <v>0.9252719090065826</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.070602399163525</v>
+        <v>0.8970526912505986</v>
       </c>
       <c r="D23">
-        <v>1.064966966357102</v>
+        <v>0.9933290929691341</v>
       </c>
       <c r="E23">
-        <v>1.073094990161873</v>
+        <v>0.9311620474964308</v>
       </c>
       <c r="F23">
-        <v>1.079834770019478</v>
+        <v>0.9587351621178554</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047075209182236</v>
+        <v>1.035238619542232</v>
       </c>
       <c r="J23">
-        <v>1.07705855370947</v>
+        <v>0.9322906413818491</v>
       </c>
       <c r="K23">
-        <v>1.06850134093537</v>
+        <v>1.008717964605021</v>
       </c>
       <c r="L23">
-        <v>1.076600632086703</v>
+        <v>0.9478847831892409</v>
       </c>
       <c r="M23">
-        <v>1.08331694792051</v>
+        <v>0.9748379555465261</v>
       </c>
       <c r="N23">
-        <v>1.07858810039608</v>
+        <v>0.9336146010278425</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.074628678638875</v>
+        <v>0.930975389160009</v>
       </c>
       <c r="D24">
-        <v>1.067014337327994</v>
+        <v>1.010532271032438</v>
       </c>
       <c r="E24">
-        <v>1.07650343017856</v>
+        <v>0.9592748067529989</v>
       </c>
       <c r="F24">
-        <v>1.082888933289469</v>
+        <v>0.9838241610086301</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047800129233805</v>
+        <v>1.043299392990448</v>
       </c>
       <c r="J24">
-        <v>1.08056925765912</v>
+        <v>0.9614162470854417</v>
       </c>
       <c r="K24">
-        <v>1.07027962148624</v>
+        <v>1.024376918712906</v>
       </c>
       <c r="L24">
-        <v>1.079737978391303</v>
+        <v>0.9740569498599897</v>
       </c>
       <c r="M24">
-        <v>1.086103130060988</v>
+        <v>0.9981414248776058</v>
       </c>
       <c r="N24">
-        <v>1.082103789948022</v>
+        <v>0.9627815684322879</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.079257255010217</v>
+        <v>0.9641612202630735</v>
       </c>
       <c r="D25">
-        <v>1.06936200494748</v>
+        <v>1.027675646330589</v>
       </c>
       <c r="E25">
-        <v>1.080419145084964</v>
+        <v>0.9869303882240478</v>
       </c>
       <c r="F25">
-        <v>1.086396368141518</v>
+        <v>1.008630241011633</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048620890646107</v>
+        <v>1.051211946522158</v>
       </c>
       <c r="J25">
-        <v>1.084600491905127</v>
+        <v>0.9899579711227835</v>
       </c>
       <c r="K25">
-        <v>1.072312663994931</v>
+        <v>1.039859004664021</v>
       </c>
       <c r="L25">
-        <v>1.083337749620451</v>
+        <v>0.999735038924692</v>
       </c>
       <c r="M25">
-        <v>1.089297939791447</v>
+        <v>1.021096044739594</v>
       </c>
       <c r="N25">
-        <v>1.086140749009048</v>
+        <v>0.9913638249915443</v>
       </c>
     </row>
   </sheetData>
